--- a/data/trans_dic/P1001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,2</t>
+          <t>0,86; 7,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,73</t>
+          <t>4,71; 14,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,82</t>
+          <t>3,15; 8,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,86</t>
+          <t>0,8; 4,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,89</t>
+          <t>3,25; 8,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,28</t>
+          <t>2,74; 5,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,24</t>
+          <t>3,92; 8,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,72</t>
+          <t>4,32; 7,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,26</t>
+          <t>4,64; 7,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>6,75%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,57</t>
+          <t>1,82; 7,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,86</t>
+          <t>7,06; 11,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,9</t>
+          <t>4,08; 8,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,81</t>
+          <t>5,64; 9,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 15,75</t>
+          <t>11,07; 15,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 11,97</t>
+          <t>9,01; 11,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,28; 17,37</t>
+          <t>8,56; 16,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,18</t>
+          <t>8,34; 16,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,85</t>
+          <t>6,03; 12,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,44</t>
+          <t>5,85; 10,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,78; 19,44</t>
+          <t>10,8; 17,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,2; 32,16</t>
+          <t>18,58; 27,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,4</t>
+          <t>17,58; 26,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 22,23</t>
+          <t>3,65; 15,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,64</t>
+          <t>10,77; 15,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,85; 25,71</t>
+          <t>14,91; 21,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,35; 20,86</t>
+          <t>13,0; 18,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 16,91</t>
+          <t>4,06; 12,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>20,3%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>12,32; 22,24</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 28,36</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 16,97</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 14,75</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 23,35</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>28,47; 38,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 32,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23,3; 29,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15,12; 21,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 33,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 25,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 22,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>5,25; 6,93</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,28; 8,18</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,26; 6,95</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 7,13</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 6,77</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>8,41; 10,46</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>13,61; 15,89</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>10,96; 13,47</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>10,36; 12,72</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 12,02</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>7,11; 8,48</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>10,2; 11,76</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>8,5; 9,9</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>8,32; 9,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 9,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,41</t>
+          <t>1,42; 4,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,49</t>
+          <t>0,99; 3,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,19</t>
+          <t>1,04; 4,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,77</t>
+          <t>0,83; 8,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,53</t>
+          <t>1,53; 4,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,99</t>
+          <t>2,67; 6,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,28</t>
+          <t>1,73; 5,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 14,07</t>
+          <t>4,41; 13,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,02</t>
+          <t>1,76; 3,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,59</t>
+          <t>2,2; 4,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,07</t>
+          <t>1,66; 4,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,74</t>
+          <t>3,19; 8,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,72</t>
+          <t>2,17; 4,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,69</t>
+          <t>1,81; 4,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,51</t>
+          <t>2,81; 6,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,99</t>
+          <t>0,94; 5,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,63</t>
+          <t>5,4; 9,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,88</t>
+          <t>3,77; 7,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,65</t>
+          <t>3,16; 6,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,55</t>
+          <t>3,03; 8,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,48</t>
+          <t>3,99; 6,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,5</t>
+          <t>3,19; 5,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,98</t>
+          <t>3,48; 5,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,97</t>
+          <t>2,74; 6,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,33</t>
+          <t>2,61; 5,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,54</t>
+          <t>3,86; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,71</t>
+          <t>3,22; 6,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,33</t>
+          <t>3,84; 8,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,83</t>
+          <t>4,97; 8,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,15</t>
+          <t>9,44; 14,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,93</t>
+          <t>5,04; 8,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,71</t>
+          <t>4,39; 7,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,82</t>
+          <t>4,25; 6,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 10,23</t>
+          <t>7,21; 10,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,09</t>
+          <t>4,51; 7,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,21</t>
+          <t>4,47; 7,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,58</t>
+          <t>4,26; 8,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,4</t>
+          <t>4,91; 9,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,47</t>
+          <t>5,02; 9,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,53</t>
+          <t>2,17; 7,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 14,36</t>
+          <t>8,62; 14,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,47</t>
+          <t>10,99; 16,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,42</t>
+          <t>8,11; 13,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,74</t>
+          <t>7,2; 11,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 10,59</t>
+          <t>7,21; 10,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,26</t>
+          <t>8,45; 12,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 10,68</t>
+          <t>7,05; 10,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,61</t>
+          <t>4,17; 8,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,13</t>
+          <t>5,84; 11,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,86</t>
+          <t>7,14; 13,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 9,21</t>
+          <t>4,79; 9,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,79</t>
+          <t>5,91; 10,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,38</t>
+          <t>8,26; 14,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 24,99</t>
+          <t>17,15; 24,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 21,81</t>
+          <t>14,46; 21,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,55</t>
+          <t>11,12; 15,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,8</t>
+          <t>7,8; 12,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,94</t>
+          <t>12,73; 17,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,4; 14,57</t>
+          <t>10,28; 15,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 11,84</t>
+          <t>8,88; 12,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 16,19</t>
+          <t>8,39; 15,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 16,29</t>
+          <t>8,63; 16,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,36</t>
+          <t>5,68; 12,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,26</t>
+          <t>5,49; 9,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 17,98</t>
+          <t>11,0; 18,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,58; 27,22</t>
+          <t>19,14; 27,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,58; 26,53</t>
+          <t>18,16; 26,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 15,84</t>
+          <t>4,06; 15,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,84</t>
+          <t>10,47; 15,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,91; 21,12</t>
+          <t>14,9; 21,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 18,62</t>
+          <t>12,73; 18,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 12,17</t>
+          <t>4,37; 12,2</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,32; 22,24</t>
+          <t>12,1; 22,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,96; 28,36</t>
+          <t>16,84; 28,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 16,97</t>
+          <t>8,93; 17,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,75</t>
+          <t>8,91; 15,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,31; 23,35</t>
+          <t>14,46; 23,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,47; 38,67</t>
+          <t>28,28; 38,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,2; 32,56</t>
+          <t>22,32; 32,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,3; 29,36</t>
+          <t>23,05; 29,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,58</t>
+          <t>14,66; 21,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,49; 33,1</t>
+          <t>25,21; 32,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,39; 25,35</t>
+          <t>18,21; 25,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,11; 22,49</t>
+          <t>18,11; 22,59</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,26; 6,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,18</t>
+          <t>6,24; 8,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,95</t>
+          <t>5,34; 6,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,77</t>
+          <t>4,43; 6,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,38; 10,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,61; 15,89</t>
+          <t>13,51; 15,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,47</t>
+          <t>11,11; 13,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,0; 12,02</t>
+          <t>8,89; 11,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,1; 8,42</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,2; 11,76</t>
+          <t>10,17; 11,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,5; 9,9</t>
+          <t>8,53; 9,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 9,18</t>
+          <t>7,25; 9,2</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12829</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9197</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11275</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12628</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19528</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12295</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26119</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25458</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28725</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22087</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37394</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7039; 21952</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4518; 15613</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4347; 17818</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3315; 33127</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7153; 21706</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11506; 28895</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6849; 20991</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13820; 41748</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16910; 36355</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19495; 40230</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13492; 33419</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22745; 60396</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24109</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20235</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26031</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45525</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33271</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26195</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28934</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>69635</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53507</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>52226</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38854</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15969; 35406</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12403; 32630</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16589; 38216</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3961; 22097</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33758; 60091</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23016; 46033</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17832; 37288</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15508; 44482</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>54290; 90248</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>41361; 70790</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40173; 67121</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25610; 57609</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26421</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37264</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31704</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30938</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46556</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>82177</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44699</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31477</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72977</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>119441</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>76403</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>62415</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16671; 38051</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26291; 51444</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21568; 44677</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20590; 44684</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34314; 60768</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67075; 102414</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33350; 59332</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23833; 41506</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56475; 91362</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100406; 142794</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59947; 94747</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>48170; 77694</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>32423</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41957</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44521</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43579</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>58070</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>83197</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67558</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64362</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>90493</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>125154</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>112079</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>107940</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22114; 43799</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30119; 58700</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32415; 59514</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19223; 67935</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44454; 73732</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>67741; 101845</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>52665; 84985</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>51271; 83899</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>74574; 112766</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>103934; 149808</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>91354; 134058</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66797; 137515</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>32190</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41599</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>32685</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42209</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44571</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>91941</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>88483</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>72338</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>76761</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>133540</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>121169</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>114547</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22589; 43404</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30653; 55989</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22897; 46304</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33180; 56221</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33351; 58180</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>76633; 110683</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>71849; 108402</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>60892; 85064</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>61670; 96281</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>111574; 156356</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>100210; 146220</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>98413; 133431</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35073</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>37403</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28761</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>28507</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>48607</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>81240</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>82980</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>60899</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>83680</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>118643</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>111742</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>89405</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>24550; 46234</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>26750; 50193</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>18997; 40925</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>20195; 36273</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37739; 62129</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>67561; 98806</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>68616; 99091</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24700; 96021</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>66525; 101360</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>98737; 139492</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>90630; 131211</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>42627; 119039</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35193</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>55008</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>32481</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>32563</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62317</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>129389</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>110049</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>110872</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>97510</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>184397</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>142530</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>143435</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25397; 46928</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42084; 71206</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22940; 44016</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>25150; 42987</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48281; 79370</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>109995; 149368</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>89332; 130853</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>97817; 124358</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>79726; 116850</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>161021; 208474</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>119658; 169028</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>127960; 159591</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>198238</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>242663</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>205975</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>198990</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>318275</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>520744</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>432259</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>395001</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>516514</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>763407</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>638234</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>593991</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>172453; 225005</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>213601; 277081</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>181184; 236112</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>153091; 230943</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>283244; 354868</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>480563; 566098</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>393719; 471155</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>325389; 436584</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>472859; 560462</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>709853; 815980</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>592027; 686199</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>516011; 654703</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>